--- a/BackTest/2019-10-27 BackTest XRP.xlsx
+++ b/BackTest/2019-10-27 BackTest XRP.xlsx
@@ -6226,17 +6226,13 @@
         <v>335</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>335</v>
-      </c>
-      <c r="K167" t="n">
-        <v>335</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
@@ -6265,22 +6261,14 @@
         <v>335</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>336</v>
-      </c>
-      <c r="K168" t="n">
-        <v>335</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6308,22 +6296,14 @@
         <v>335</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>335</v>
-      </c>
-      <c r="K169" t="n">
-        <v>335</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6351,22 +6331,14 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>335</v>
-      </c>
-      <c r="K170" t="n">
-        <v>335</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6394,22 +6366,14 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>336</v>
-      </c>
-      <c r="K171" t="n">
-        <v>335</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6437,22 +6401,14 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>335</v>
-      </c>
-      <c r="K172" t="n">
-        <v>335</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6480,22 +6436,14 @@
         <v>335</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>335</v>
-      </c>
-      <c r="K173" t="n">
-        <v>335</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6523,22 +6471,14 @@
         <v>335</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>335</v>
-      </c>
-      <c r="K174" t="n">
-        <v>335</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6572,16 +6512,12 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K175" t="n">
         <v>335</v>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6609,20 +6545,18 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>335</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>335</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -6652,14 +6586,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>335</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>335</v>
       </c>
@@ -6695,14 +6627,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>335</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>335</v>
       </c>
@@ -6738,14 +6668,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>335</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>335</v>
       </c>
@@ -6781,14 +6709,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>335</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>335</v>
       </c>
@@ -6824,14 +6750,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>335</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>335</v>
       </c>
@@ -6867,14 +6791,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>335</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>335</v>
       </c>
@@ -6910,14 +6832,12 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>336</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>335</v>
       </c>
@@ -6953,14 +6873,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>336</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>335</v>
       </c>
@@ -6996,14 +6914,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>336</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
         <v>335</v>
       </c>
@@ -7039,14 +6955,12 @@
         <v>335</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>335</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>335</v>
       </c>
@@ -7082,14 +6996,12 @@
         <v>335</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>335</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>335</v>
       </c>
@@ -7125,14 +7037,12 @@
         <v>335</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>335</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>335</v>
       </c>
@@ -7168,14 +7078,12 @@
         <v>335</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>335</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>335</v>
       </c>
@@ -7211,14 +7119,12 @@
         <v>335</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>335</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>335</v>
       </c>
@@ -7254,14 +7160,12 @@
         <v>335</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>335</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>335</v>
       </c>
@@ -7297,14 +7201,12 @@
         <v>335</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>335</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>335</v>
       </c>
@@ -7340,14 +7242,12 @@
         <v>335</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>335</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>335</v>
       </c>
@@ -7383,14 +7283,12 @@
         <v>335</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>335</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>335</v>
       </c>
@@ -7426,14 +7324,12 @@
         <v>335</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>335</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>335</v>
       </c>
@@ -7469,14 +7365,12 @@
         <v>335</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>335</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
         <v>335</v>
       </c>
@@ -7512,14 +7406,12 @@
         <v>335</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>336</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
         <v>335</v>
       </c>
@@ -7555,14 +7447,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>335</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
         <v>335</v>
       </c>
@@ -7598,14 +7488,12 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>335</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
         <v>335</v>
       </c>
@@ -7641,14 +7529,12 @@
         <v>336</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>336</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
         <v>335</v>
       </c>
@@ -7684,14 +7570,12 @@
         <v>336</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>336</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
         <v>335</v>
       </c>
@@ -7727,14 +7611,12 @@
         <v>336</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>337</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
         <v>335</v>
       </c>
@@ -7770,14 +7652,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>336</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
         <v>335</v>
       </c>
@@ -7813,14 +7693,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>337</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>335</v>
       </c>
@@ -7856,14 +7734,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>336</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>335</v>
       </c>
@@ -7899,14 +7775,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>336</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
         <v>335</v>
       </c>
@@ -7942,14 +7816,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>337</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>335</v>
       </c>
@@ -7985,14 +7857,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>337</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>335</v>
       </c>
@@ -8028,14 +7898,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>336</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
         <v>335</v>
       </c>
@@ -8071,14 +7939,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>336</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>335</v>
       </c>
@@ -8114,14 +7980,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>337</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>335</v>
       </c>
@@ -8157,14 +8021,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>337</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>335</v>
       </c>
@@ -8733,14 +8595,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>335</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>335</v>
       </c>
@@ -8776,14 +8636,12 @@
         <v>335</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>335</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
         <v>335</v>
       </c>
@@ -8819,14 +8677,12 @@
         <v>335</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>335</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
         <v>335</v>
       </c>
@@ -8862,14 +8718,12 @@
         <v>335</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>335</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
         <v>335</v>
       </c>
@@ -8905,14 +8759,12 @@
         <v>335</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>335</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
         <v>335</v>
       </c>
@@ -8948,14 +8800,12 @@
         <v>335</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>335</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
         <v>335</v>
       </c>
@@ -8991,14 +8841,12 @@
         <v>334.6666666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>335</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
         <v>335</v>
       </c>
@@ -9034,14 +8882,12 @@
         <v>334</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>334</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
         <v>335</v>
       </c>
@@ -9077,14 +8923,12 @@
         <v>334</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>333</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
         <v>335</v>
       </c>
@@ -9120,14 +8964,12 @@
         <v>334</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>334</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
         <v>335</v>
       </c>
@@ -9163,14 +9005,12 @@
         <v>334.3333333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>334</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
         <v>335</v>
       </c>
@@ -9206,14 +9046,12 @@
         <v>334</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>335</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
         <v>335</v>
       </c>
@@ -9249,14 +9087,12 @@
         <v>334.6666666666667</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>335</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>335</v>
       </c>
@@ -9292,14 +9128,12 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>337</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
         <v>335</v>
       </c>
@@ -9335,14 +9169,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>335</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
         <v>335</v>
       </c>
@@ -9378,14 +9210,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>337</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
         <v>335</v>
       </c>
@@ -9421,14 +9251,12 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>336</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
         <v>335</v>
       </c>
@@ -9464,14 +9292,12 @@
         <v>335.3333333333333</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>335</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
         <v>335</v>
       </c>
@@ -9507,14 +9333,12 @@
         <v>335.6666666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>336</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
         <v>335</v>
       </c>
@@ -9550,14 +9374,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>337</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
         <v>335</v>
       </c>
@@ -9593,14 +9415,12 @@
         <v>336.6666666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>337</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
         <v>335</v>
       </c>
@@ -9636,14 +9456,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>336</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
         <v>335</v>
       </c>
@@ -9679,14 +9497,12 @@
         <v>336</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>336</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
         <v>335</v>
       </c>
@@ -9722,14 +9538,12 @@
         <v>336</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>336</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
         <v>335</v>
       </c>
@@ -9765,14 +9579,12 @@
         <v>336</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>336</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
         <v>335</v>
       </c>
@@ -9808,14 +9620,12 @@
         <v>336</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>336</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
         <v>335</v>
       </c>
@@ -9851,14 +9661,12 @@
         <v>336</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>336</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
         <v>335</v>
       </c>
@@ -9894,14 +9702,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>337</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
         <v>335</v>
       </c>
@@ -9937,14 +9743,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>336</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
         <v>335</v>
       </c>
@@ -10021,14 +9825,12 @@
         <v>336.3333333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>337</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
         <v>335</v>
       </c>
@@ -10064,14 +9866,12 @@
         <v>337</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>338</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
         <v>335</v>
       </c>
@@ -23883,12 +23683,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>337</v>
+      </c>
       <c r="K594" t="n">
         <v>335</v>
       </c>
@@ -23924,12 +23726,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>338</v>
+      </c>
       <c r="K595" t="n">
         <v>335</v>
       </c>
@@ -23965,12 +23769,14 @@
         <v>337.6666666666667</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>337</v>
+      </c>
       <c r="K596" t="n">
         <v>335</v>
       </c>
@@ -24006,12 +23812,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>338</v>
+      </c>
       <c r="K597" t="n">
         <v>335</v>
       </c>
@@ -24047,12 +23855,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>337</v>
+      </c>
       <c r="K598" t="n">
         <v>335</v>
       </c>
@@ -24088,12 +23898,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>337</v>
+      </c>
       <c r="K599" t="n">
         <v>335</v>
       </c>
@@ -24129,12 +23941,14 @@
         <v>337.3333333333333</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>338</v>
+      </c>
       <c r="K600" t="n">
         <v>335</v>
       </c>
@@ -24170,12 +23984,14 @@
         <v>337.6666666666667</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>337</v>
+      </c>
       <c r="K601" t="n">
         <v>335</v>
       </c>
@@ -24211,12 +24027,14 @@
         <v>337.6666666666667</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>338</v>
+      </c>
       <c r="K602" t="n">
         <v>335</v>
       </c>
@@ -24252,12 +24070,14 @@
         <v>338</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>338</v>
+      </c>
       <c r="K603" t="n">
         <v>335</v>
       </c>
@@ -24334,12 +24154,14 @@
         <v>338</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>338</v>
+      </c>
       <c r="K605" t="n">
         <v>335</v>
       </c>
@@ -31717,7 +31539,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="n">
@@ -31725,11 +31547,11 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>1</v>
+        <v>1.021865671641791</v>
       </c>
     </row>
     <row r="786">
@@ -31758,17 +31580,11 @@
         <v>0</v>
       </c>
       <c r="I786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="n">
-        <v>335</v>
-      </c>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -31802,14 +31618,8 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="n">
-        <v>335</v>
-      </c>
-      <c r="L787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -31843,14 +31653,8 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="n">
-        <v>335</v>
-      </c>
-      <c r="L788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -31884,14 +31688,8 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="n">
-        <v>335</v>
-      </c>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -31925,14 +31723,8 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="n">
-        <v>335</v>
-      </c>
-      <c r="L790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -31966,14 +31758,8 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="n">
-        <v>335</v>
-      </c>
-      <c r="L791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -32004,19 +31790,13 @@
         <v>0</v>
       </c>
       <c r="I792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="n">
-        <v>335</v>
-      </c>
-      <c r="L792" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
       <c r="M792" t="n">
-        <v>1.030820895522388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -32045,7 +31825,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
@@ -32080,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
@@ -32150,7 +31930,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
